--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,472 +64,514 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.879+/-0.003</t>
   </si>
   <si>
-    <t>0.809+/-0.0</t>
+    <t>0.81+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.859+/-0.004</t>
+  </si>
+  <si>
+    <t>0.795+/-0.015</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.906+/-0.002</t>
+  </si>
+  <si>
+    <t>0.835+/-0.007</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>10.297+/-0.283</t>
+  </si>
+  <si>
+    <t>0.765+/-0.002</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
   </si>
   <si>
     <t>0.706</t>
   </si>
   <si>
-    <t>0.857+/-0.004</t>
-  </si>
-  <si>
-    <t>0.792+/-0.01</t>
-  </si>
-  <si>
-    <t>0.331</t>
+    <t>0.768+/-0.004</t>
+  </si>
+  <si>
+    <t>0.754+/-0.014</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.76+/-0.004</t>
+  </si>
+  <si>
+    <t>0.755+/-0.02</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>2.441+/-0.055</t>
+  </si>
+  <si>
+    <t>0.868+/-0.002</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.78</t>
   </si>
   <si>
     <t>0.909+/-0.003</t>
   </si>
   <si>
-    <t>0.838+/-0.016</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>10.365+/-0.072</t>
+    <t>0.884+/-0.014</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.819+/-0.002</t>
+  </si>
+  <si>
+    <t>0.795+/-0.019</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>8.391+/-0.554</t>
+  </si>
+  <si>
+    <t>0.738+/-0.004</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.732+/-0.006</t>
+  </si>
+  <si>
+    <t>0.703+/-0.013</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>0.752+/-0.005</t>
+  </si>
+  <si>
+    <t>0.721+/-0.012</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.862+/-0.035</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.894+/-0.003</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.872+/-0.005</t>
+  </si>
+  <si>
+    <t>0.819+/-0.01</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.923+/-0.002</t>
+  </si>
+  <si>
+    <t>0.867+/-0.014</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>11.002+/-0.156</t>
+  </si>
+  <si>
+    <t>0.789+/-0.003</t>
+  </si>
+  <si>
+    <t>0.779+/-0.0</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.792+/-0.004</t>
+  </si>
+  <si>
+    <t>0.783+/-0.011</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.784+/-0.004</t>
+  </si>
+  <si>
+    <t>0.771+/-0.015</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>2.173+/-0.054</t>
+  </si>
+  <si>
+    <t>0.895+/-0.001</t>
+  </si>
+  <si>
+    <t>0.877+/-0.0</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.926+/-0.002</t>
+  </si>
+  <si>
+    <t>0.908+/-0.013</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.858+/-0.002</t>
+  </si>
+  <si>
+    <t>0.839+/-0.012</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>8.995+/-0.078</t>
+  </si>
+  <si>
+    <t>0.744+/-0.004</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71</t>
   </si>
   <si>
     <t>0.763+/-0.003</t>
   </si>
   <si>
-    <t>0.752+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>0.765+/-0.004</t>
-  </si>
-  <si>
-    <t>0.754+/-0.009</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.76+/-0.004</t>
-  </si>
-  <si>
-    <t>0.747+/-0.021</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>2.011+/-0.021</t>
-  </si>
-  <si>
-    <t>0.868+/-0.002</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.906+/-0.002</t>
-  </si>
-  <si>
-    <t>0.884+/-0.01</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.821+/-0.003</t>
-  </si>
-  <si>
-    <t>0.798+/-0.019</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>7.945+/-0.087</t>
-  </si>
-  <si>
-    <t>0.745+/-0.002</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.737+/-0.005</t>
-  </si>
-  <si>
-    <t>0.701+/-0.013</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.763+/-0.009</t>
-  </si>
-  <si>
-    <t>0.727+/-0.017</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.917+/-0.014</t>
-  </si>
-  <si>
-    <t>0.905+/-0.003</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.885+/-0.004</t>
-  </si>
-  <si>
-    <t>0.83+/-0.009</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.931+/-0.002</t>
-  </si>
-  <si>
-    <t>0.872+/-0.009</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>10.954+/-0.117</t>
-  </si>
-  <si>
-    <t>0.79+/-0.004</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.798+/-0.004</t>
-  </si>
-  <si>
-    <t>0.788+/-0.011</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.776+/-0.007</t>
-  </si>
-  <si>
-    <t>0.767+/-0.016</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>2.168+/-0.024</t>
-  </si>
-  <si>
-    <t>0.896+/-0.001</t>
-  </si>
-  <si>
-    <t>0.875+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.93+/-0.003</t>
-  </si>
-  <si>
-    <t>0.91+/-0.01</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.857+/-0.002</t>
-  </si>
-  <si>
-    <t>0.833+/-0.007</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>8.61+/-0.054</t>
-  </si>
-  <si>
-    <t>0.742+/-0.004</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.738+/-0.012</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.703+/-0.011</t>
-  </si>
-  <si>
-    <t>0.679+/-0.025</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.983+/-0.028</t>
-  </si>
-  <si>
-    <t>0.881+/-0.002</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.896+/-0.004</t>
-  </si>
-  <si>
-    <t>0.771+/-0.02</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.861+/-0.004</t>
-  </si>
-  <si>
-    <t>0.73+/-0.018</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>7.156+/-0.096</t>
-  </si>
-  <si>
-    <t>0.705+/-0.003</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.727+/-0.004</t>
-  </si>
-  <si>
-    <t>0.716+/-0.011</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.655+/-0.004</t>
-  </si>
-  <si>
-    <t>0.645+/-0.019</t>
-  </si>
-  <si>
-    <t>1.534+/-0.015</t>
-  </si>
-  <si>
-    <t>0.811+/-0.002</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
+    <t>0.741+/-0.013</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.709+/-0.014</t>
+  </si>
+  <si>
+    <t>0.684+/-0.023</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.939+/-0.026</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.878+/-0.002</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.887+/-0.005</t>
+  </si>
+  <si>
+    <t>0.763+/-0.017</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.865+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.016</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>7.686+/-0.454</t>
+  </si>
+  <si>
+    <t>0.709+/-0.003</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.724+/-0.004</t>
+  </si>
+  <si>
+    <t>0.714+/-0.013</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.674+/-0.005</t>
+  </si>
+  <si>
+    <t>0.663+/-0.023</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>1.637+/-0.047</t>
+  </si>
+  <si>
+    <t>0.815+/-0.002</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.717</t>
   </si>
   <si>
     <t>0.904+/-0.004</t>
   </si>
   <si>
-    <t>0.856+/-0.021</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.696+/-0.004</t>
-  </si>
-  <si>
-    <t>0.657+/-0.016</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>6.125+/-0.086</t>
-  </si>
-  <si>
-    <t>0.672+/-0.003</t>
+    <t>0.856+/-0.022</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.705+/-0.004</t>
+  </si>
+  <si>
+    <t>0.666+/-0.02</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>6.68+/-0.105</t>
+  </si>
+  <si>
+    <t>0.678+/-0.004</t>
   </si>
   <si>
     <t>0.625+/-0.0</t>
   </si>
   <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.66+/-0.004</t>
-  </si>
-  <si>
-    <t>0.615+/-0.009</t>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.656+/-0.006</t>
+  </si>
+  <si>
+    <t>0.61+/-0.01</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>0.712+/-0.005</t>
-  </si>
-  <si>
-    <t>0.667+/-0.014</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.658+/-0.03</t>
-  </si>
-  <si>
-    <t>0.87+/-0.001</t>
-  </si>
-  <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.871+/-0.002</t>
-  </si>
-  <si>
-    <t>0.729+/-0.012</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.868+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.021</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>7.116+/-0.07</t>
-  </si>
-  <si>
-    <t>0.687+/-0.003</t>
-  </si>
-  <si>
-    <t>0.673+/-0.0</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.691+/-0.014</t>
+    <t>0.747+/-0.003</t>
+  </si>
+  <si>
+    <t>0.695+/-0.019</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.664+/-0.018</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.871+/-0.003</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.876+/-0.003</t>
+  </si>
+  <si>
+    <t>0.731+/-0.012</t>
+  </si>
+  <si>
+    <t>0.864+/-0.004</t>
+  </si>
+  <si>
+    <t>0.703+/-0.024</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>7.558+/-0.163</t>
+  </si>
+  <si>
+    <t>0.68+/-0.003</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.7+/-0.005</t>
+  </si>
+  <si>
+    <t>0.684+/-0.007</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.632+/-0.006</t>
+  </si>
+  <si>
+    <t>0.619+/-0.021</t>
   </si>
   <si>
     <t>0.391</t>
   </si>
   <si>
-    <t>0.642+/-0.008</t>
-  </si>
-  <si>
-    <t>0.625+/-0.017</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>1.413+/-0.027</t>
+    <t>1.511+/-0.03</t>
   </si>
   <si>
     <t>0.788+/-0.002</t>
   </si>
   <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.886+/-0.005</t>
-  </si>
-  <si>
-    <t>0.823+/-0.014</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.662+/-0.005</t>
-  </si>
-  <si>
-    <t>0.615+/-0.017</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>5.856+/-0.125</t>
-  </si>
-  <si>
-    <t>0.668+/-0.005</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.65+/-0.005</t>
-  </si>
-  <si>
-    <t>0.601+/-0.017</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.729+/-0.009</t>
-  </si>
-  <si>
-    <t>0.676+/-0.024</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.682+/-0.055</t>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.88+/-0.003</t>
+  </si>
+  <si>
+    <t>0.82+/-0.016</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.667+/-0.004</t>
+  </si>
+  <si>
+    <t>0.617+/-0.02</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>6.293+/-0.134</t>
+  </si>
+  <si>
+    <t>0.667+/-0.005</t>
+  </si>
+  <si>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.652+/-0.006</t>
+  </si>
+  <si>
+    <t>0.599+/-0.016</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.718+/-0.008</t>
+  </si>
+  <si>
+    <t>0.661+/-0.024</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.705+/-0.041</t>
   </si>
 </sst>
 </file>
@@ -918,16 +960,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -935,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -955,19 +997,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -975,19 +1017,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -995,19 +1037,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1015,19 +1057,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1035,19 +1077,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1055,19 +1097,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1075,19 +1117,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1095,19 +1137,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1145,19 +1187,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1165,19 +1207,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1185,19 +1227,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1205,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1225,19 +1267,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1245,19 +1287,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1265,19 +1307,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1285,19 +1327,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1305,19 +1347,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1325,19 +1367,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1375,19 +1417,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1395,19 +1437,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1415,19 +1457,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1435,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1455,19 +1497,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1475,19 +1517,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1495,19 +1537,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1515,19 +1557,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1535,19 +1577,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1555,19 +1597,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1605,19 +1647,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1625,19 +1667,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1645,19 +1687,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1665,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1685,19 +1727,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1705,19 +1747,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1725,19 +1767,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1745,19 +1787,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1765,19 +1807,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1785,19 +1827,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -82,496 +82,490 @@
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.879+/-0.003</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.859+/-0.004</t>
-  </si>
-  <si>
-    <t>0.795+/-0.015</t>
-  </si>
-  <si>
-    <t>0.324</t>
+    <t>0.883+/-0.002</t>
+  </si>
+  <si>
+    <t>0.809+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.867+/-0.003</t>
+  </si>
+  <si>
+    <t>0.799+/-0.017</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.904+/-0.003</t>
+  </si>
+  <si>
+    <t>0.827+/-0.015</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>9.551+/-0.181</t>
+  </si>
+  <si>
+    <t>0.763+/-0.002</t>
+  </si>
+  <si>
+    <t>0.751+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.767+/-0.003</t>
+  </si>
+  <si>
+    <t>0.753+/-0.012</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.756+/-0.005</t>
+  </si>
+  <si>
+    <t>0.747+/-0.013</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>1.834+/-0.019</t>
+  </si>
+  <si>
+    <t>0.869+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.0</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.91+/-0.003</t>
+  </si>
+  <si>
+    <t>0.886+/-0.012</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.82+/-0.002</t>
+  </si>
+  <si>
+    <t>0.794+/-0.015</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>7.48+/-0.101</t>
+  </si>
+  <si>
+    <t>0.741+/-0.003</t>
+  </si>
+  <si>
+    <t>0.711+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.756+/-0.004</t>
+  </si>
+  <si>
+    <t>0.727+/-0.012</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.712+/-0.005</t>
+  </si>
+  <si>
+    <t>0.678+/-0.017</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.859+/-0.015</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.906+/-0.002</t>
   </si>
   <si>
-    <t>0.835+/-0.007</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>10.297+/-0.283</t>
-  </si>
-  <si>
-    <t>0.765+/-0.002</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.768+/-0.004</t>
-  </si>
-  <si>
-    <t>0.754+/-0.014</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.76+/-0.004</t>
-  </si>
-  <si>
-    <t>0.755+/-0.02</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>2.441+/-0.055</t>
-  </si>
-  <si>
-    <t>0.868+/-0.002</t>
-  </si>
-  <si>
-    <t>0.845+/-0.0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.909+/-0.003</t>
-  </si>
-  <si>
-    <t>0.884+/-0.014</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.819+/-0.002</t>
-  </si>
-  <si>
-    <t>0.795+/-0.019</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>8.391+/-0.554</t>
-  </si>
-  <si>
-    <t>0.738+/-0.004</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.732+/-0.006</t>
-  </si>
-  <si>
-    <t>0.703+/-0.013</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.752+/-0.005</t>
-  </si>
-  <si>
-    <t>0.721+/-0.012</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.862+/-0.035</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.894+/-0.003</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.872+/-0.005</t>
-  </si>
-  <si>
-    <t>0.819+/-0.01</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.923+/-0.002</t>
-  </si>
-  <si>
-    <t>0.867+/-0.014</t>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.89+/-0.003</t>
+  </si>
+  <si>
+    <t>0.837+/-0.009</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.927+/-0.001</t>
+  </si>
+  <si>
+    <t>0.872+/-0.009</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>10.917+/-0.157</t>
+  </si>
+  <si>
+    <t>0.788+/-0.003</t>
+  </si>
+  <si>
+    <t>0.774+/-0.0</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.798+/-0.004</t>
+  </si>
+  <si>
+    <t>0.783+/-0.011</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.771+/-0.003</t>
+  </si>
+  <si>
+    <t>0.758+/-0.008</t>
   </si>
   <si>
     <t>0.412</t>
   </si>
   <si>
-    <t>11.002+/-0.156</t>
-  </si>
-  <si>
-    <t>0.789+/-0.003</t>
-  </si>
-  <si>
-    <t>0.779+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.792+/-0.004</t>
-  </si>
-  <si>
-    <t>0.783+/-0.011</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.784+/-0.004</t>
-  </si>
-  <si>
-    <t>0.771+/-0.015</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>2.173+/-0.054</t>
-  </si>
-  <si>
-    <t>0.895+/-0.001</t>
-  </si>
-  <si>
-    <t>0.877+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>0.926+/-0.002</t>
-  </si>
-  <si>
-    <t>0.908+/-0.013</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.858+/-0.002</t>
-  </si>
-  <si>
-    <t>0.839+/-0.012</t>
+    <t>2.131+/-0.031</t>
+  </si>
+  <si>
+    <t>0.897+/-0.002</t>
+  </si>
+  <si>
+    <t>0.879+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.931+/-0.002</t>
+  </si>
+  <si>
+    <t>0.913+/-0.009</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.857+/-0.002</t>
+  </si>
+  <si>
+    <t>0.838+/-0.01</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>8.75+/-0.359</t>
+  </si>
+  <si>
+    <t>0.742+/-0.005</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.773+/-0.004</t>
+  </si>
+  <si>
+    <t>0.749+/-0.017</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.685+/-0.01</t>
+  </si>
+  <si>
+    <t>0.659+/-0.018</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.859+/-0.024</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.872+/-0.003</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.889+/-0.005</t>
+  </si>
+  <si>
+    <t>0.776+/-0.025</t>
+  </si>
+  <si>
+    <t>0.849+/-0.004</t>
+  </si>
+  <si>
+    <t>0.719+/-0.025</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>7.122+/-0.047</t>
+  </si>
+  <si>
+    <t>0.709+/-0.004</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.731+/-0.004</t>
+  </si>
+  <si>
+    <t>0.716+/-0.02</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.663+/-0.007</t>
+  </si>
+  <si>
+    <t>0.652+/-0.026</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>1.557+/-0.031</t>
+  </si>
+  <si>
+    <t>0.814+/-0.001</t>
+  </si>
+  <si>
+    <t>0.778+/-0.0</t>
+  </si>
+  <si>
+    <t>0.863+/-0.017</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.696+/-0.003</t>
+  </si>
+  <si>
+    <t>0.662+/-0.021</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>6.363+/-0.065</t>
+  </si>
+  <si>
+    <t>0.677+/-0.003</t>
+  </si>
+  <si>
+    <t>0.63+/-0.0</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.663+/-0.002</t>
+  </si>
+  <si>
+    <t>0.62+/-0.01</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.719+/-0.007</t>
+  </si>
+  <si>
+    <t>0.672+/-0.018</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.673+/-0.023</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.871+/-0.002</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.883+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.009</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.855+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.015</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>6.928+/-0.046</t>
+  </si>
+  <si>
+    <t>0.685+/-0.003</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.706+/-0.005</t>
+  </si>
+  <si>
+    <t>0.689+/-0.015</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.633+/-0.009</t>
+  </si>
+  <si>
+    <t>0.619+/-0.025</t>
+  </si>
+  <si>
+    <t>1.475+/-0.019</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.884+/-0.005</t>
+  </si>
+  <si>
+    <t>0.817+/-0.013</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.664+/-0.004</t>
+  </si>
+  <si>
+    <t>0.61+/-0.023</t>
   </si>
   <si>
     <t>0.211</t>
   </si>
   <si>
-    <t>8.995+/-0.078</t>
-  </si>
-  <si>
-    <t>0.744+/-0.004</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.763+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.013</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.709+/-0.014</t>
-  </si>
-  <si>
-    <t>0.684+/-0.023</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.939+/-0.026</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.878+/-0.002</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.887+/-0.005</t>
-  </si>
-  <si>
-    <t>0.763+/-0.017</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.865+/-0.004</t>
-  </si>
-  <si>
-    <t>0.74+/-0.016</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>7.686+/-0.454</t>
-  </si>
-  <si>
-    <t>0.709+/-0.003</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.724+/-0.004</t>
-  </si>
-  <si>
-    <t>0.714+/-0.013</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.674+/-0.005</t>
-  </si>
-  <si>
-    <t>0.663+/-0.023</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>1.637+/-0.047</t>
-  </si>
-  <si>
-    <t>0.815+/-0.002</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.904+/-0.004</t>
-  </si>
-  <si>
-    <t>0.856+/-0.022</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.705+/-0.004</t>
-  </si>
-  <si>
-    <t>0.666+/-0.02</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>6.68+/-0.105</t>
-  </si>
-  <si>
-    <t>0.678+/-0.004</t>
-  </si>
-  <si>
-    <t>0.625+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.656+/-0.006</t>
-  </si>
-  <si>
-    <t>0.61+/-0.01</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.747+/-0.003</t>
-  </si>
-  <si>
-    <t>0.695+/-0.019</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.664+/-0.018</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.876+/-0.003</t>
-  </si>
-  <si>
-    <t>0.731+/-0.012</t>
-  </si>
-  <si>
-    <t>0.864+/-0.004</t>
-  </si>
-  <si>
-    <t>0.703+/-0.024</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>7.558+/-0.163</t>
-  </si>
-  <si>
-    <t>0.68+/-0.003</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.7+/-0.005</t>
-  </si>
-  <si>
-    <t>0.684+/-0.007</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.632+/-0.006</t>
-  </si>
-  <si>
-    <t>0.619+/-0.021</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>1.511+/-0.03</t>
-  </si>
-  <si>
-    <t>0.788+/-0.002</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.88+/-0.003</t>
-  </si>
-  <si>
-    <t>0.82+/-0.016</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.667+/-0.004</t>
-  </si>
-  <si>
-    <t>0.617+/-0.02</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>6.293+/-0.134</t>
-  </si>
-  <si>
-    <t>0.667+/-0.005</t>
-  </si>
-  <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652+/-0.006</t>
-  </si>
-  <si>
-    <t>0.599+/-0.016</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.718+/-0.008</t>
-  </si>
-  <si>
-    <t>0.661+/-0.024</t>
+    <t>6.076+/-0.067</t>
+  </si>
+  <si>
+    <t>0.672+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.0</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.656+/-0.004</t>
+  </si>
+  <si>
+    <t>0.606+/-0.013</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.723+/-0.008</t>
+  </si>
+  <si>
+    <t>0.665+/-0.023</t>
   </si>
   <si>
     <t>0.578</t>
   </si>
   <si>
-    <t>0.705+/-0.041</t>
+    <t>0.62+/-0.013</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>115</v>
@@ -1429,7 +1423,7 @@
         <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1440,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -1449,7 +1443,7 @@
         <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,16 +1454,16 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,16 +1474,16 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,16 +1494,16 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1520,16 +1514,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1546,10 +1540,10 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1566,10 +1560,10 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1586,10 +1580,10 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1597,7 +1591,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -1606,10 +1600,10 @@
         <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1650,16 +1644,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,16 +1664,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1687,19 +1681,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1707,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1727,19 +1721,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,16 +1744,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1767,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
@@ -1776,10 +1770,10 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1787,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>153</v>
@@ -1796,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,13 +1807,13 @@
         <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1827,19 +1821,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="227">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,511 +61,643 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.883+/-0.002</t>
-  </si>
-  <si>
-    <t>0.809+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.867+/-0.003</t>
-  </si>
-  <si>
-    <t>0.799+/-0.017</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.904+/-0.003</t>
-  </si>
-  <si>
-    <t>0.827+/-0.015</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>9.551+/-0.181</t>
-  </si>
-  <si>
-    <t>0.763+/-0.002</t>
-  </si>
-  <si>
-    <t>0.751+/-0.0</t>
+    <t>0.884+/-0.004</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.866+/-0.005</t>
+  </si>
+  <si>
+    <t>0.373+/-0.02</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.909+/-0.005</t>
+  </si>
+  <si>
+    <t>0.486+/-0.026</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.953+/-0.002</t>
+  </si>
+  <si>
+    <t>0.716+/-0.02</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>14.907+/-0.155</t>
+  </si>
+  <si>
+    <t>0.764+/-0.002</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.768+/-0.002</t>
+  </si>
+  <si>
+    <t>0.328+/-0.023</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.756+/-0.003</t>
+  </si>
+  <si>
+    <t>0.467+/-0.04</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.849+/-0.002</t>
+  </si>
+  <si>
+    <t>0.676+/-0.03</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>2.903+/-0.063</t>
+  </si>
+  <si>
+    <t>0.87+/-0.002</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.91+/-0.003</t>
+  </si>
+  <si>
+    <t>0.42+/-0.04</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.822+/-0.004</t>
+  </si>
+  <si>
+    <t>0.298+/-0.053</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.94+/-0.001</t>
+  </si>
+  <si>
+    <t>0.704+/-0.03</t>
+  </si>
+  <si>
+    <t>11.833+/-0.416</t>
+  </si>
+  <si>
+    <t>0.743+/-0.005</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.749+/-0.015</t>
+  </si>
+  <si>
+    <t>0.331+/-0.031</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.733+/-0.028</t>
+  </si>
+  <si>
+    <t>0.543+/-0.069</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.811+/-0.004</t>
+  </si>
+  <si>
+    <t>0.699+/-0.027</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>1.525+/-0.04</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.902+/-0.005</t>
+  </si>
+  <si>
+    <t>0.772+/-0.0</t>
+  </si>
+  <si>
+    <t>0.881+/-0.006</t>
+  </si>
+  <si>
+    <t>0.321+/-0.024</t>
+  </si>
+  <si>
+    <t>0.93+/-0.005</t>
+  </si>
+  <si>
+    <t>0.465+/-0.021</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.964+/-0.002</t>
+  </si>
+  <si>
+    <t>0.724+/-0.014</t>
   </si>
   <si>
     <t>0.702</t>
   </si>
   <si>
-    <t>0.767+/-0.003</t>
-  </si>
-  <si>
-    <t>0.753+/-0.012</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.756+/-0.005</t>
-  </si>
-  <si>
-    <t>0.747+/-0.013</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>1.834+/-0.019</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.91+/-0.003</t>
-  </si>
-  <si>
-    <t>0.886+/-0.012</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.82+/-0.002</t>
-  </si>
-  <si>
-    <t>0.794+/-0.015</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>7.48+/-0.101</t>
-  </si>
-  <si>
-    <t>0.741+/-0.003</t>
-  </si>
-  <si>
-    <t>0.711+/-0.0</t>
-  </si>
-  <si>
-    <t>0.669</t>
+    <t>16.254+/-0.581</t>
+  </si>
+  <si>
+    <t>0.789+/-0.004</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.795+/-0.006</t>
+  </si>
+  <si>
+    <t>0.274+/-0.022</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.779+/-0.008</t>
+  </si>
+  <si>
+    <t>0.452+/-0.039</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.873+/-0.002</t>
+  </si>
+  <si>
+    <t>0.681+/-0.015</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>3.13+/-0.061</t>
+  </si>
+  <si>
+    <t>0.898+/-0.002</t>
+  </si>
+  <si>
+    <t>0.815+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.929+/-0.005</t>
+  </si>
+  <si>
+    <t>0.346+/-0.029</t>
+  </si>
+  <si>
+    <t>0.862+/-0.002</t>
+  </si>
+  <si>
+    <t>0.257+/-0.014</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.957+/-0.001</t>
+  </si>
+  <si>
+    <t>0.707+/-0.014</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>12.378+/-0.182</t>
+  </si>
+  <si>
+    <t>0.75+/-0.004</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.768+/-0.008</t>
+  </si>
+  <si>
+    <t>0.284+/-0.027</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.715+/-0.015</t>
+  </si>
+  <si>
+    <t>0.53+/-0.042</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.83+/-0.004</t>
+  </si>
+  <si>
+    <t>0.711+/-0.021</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>1.56+/-0.036</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.877+/-0.004</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.892+/-0.007</t>
+  </si>
+  <si>
+    <t>0.376+/-0.029</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.858+/-0.005</t>
+  </si>
+  <si>
+    <t>0.334+/-0.022</t>
+  </si>
+  <si>
+    <t>0.948+/-0.002</t>
+  </si>
+  <si>
+    <t>0.605+/-0.021</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>11.345+/-0.173</t>
+  </si>
+  <si>
+    <t>0.707+/-0.004</t>
+  </si>
+  <si>
+    <t>0.644+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724+/-0.004</t>
+  </si>
+  <si>
+    <t>0.369+/-0.022</t>
+  </si>
+  <si>
+    <t>0.667+/-0.008</t>
+  </si>
+  <si>
+    <t>0.402+/-0.026</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.781+/-0.004</t>
+  </si>
+  <si>
+    <t>0.606+/-0.021</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>2.174+/-0.036</t>
+  </si>
+  <si>
+    <t>0.812+/-0.003</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
+  </si>
+  <si>
+    <t>0.902+/-0.006</t>
+  </si>
+  <si>
+    <t>0.407+/-0.037</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.701+/-0.005</t>
+  </si>
+  <si>
+    <t>0.206+/-0.022</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.887+/-0.001</t>
+  </si>
+  <si>
+    <t>0.605+/-0.018</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>8.481+/-0.097</t>
+  </si>
+  <si>
+    <t>0.682+/-0.006</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.667+/-0.006</t>
+  </si>
+  <si>
+    <t>0.343+/-0.016</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.726+/-0.012</t>
+  </si>
+  <si>
+    <t>0.556+/-0.03</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.753+/-0.004</t>
+  </si>
+  <si>
+    <t>0.609+/-0.018</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>1.17+/-0.03</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.87+/-0.007</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.88+/-0.007</t>
+  </si>
+  <si>
+    <t>0.382+/-0.03</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.857+/-0.01</t>
+  </si>
+  <si>
+    <t>0.34+/-0.038</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.947+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.011</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>10.88+/-0.093</t>
+  </si>
+  <si>
+    <t>0.686+/-0.005</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.707+/-0.005</t>
+  </si>
+  <si>
+    <t>0.378+/-0.017</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.635+/-0.011</t>
+  </si>
+  <si>
+    <t>0.372+/-0.024</t>
+  </si>
+  <si>
+    <t>0.063</t>
   </si>
   <si>
     <t>0.756+/-0.004</t>
   </si>
   <si>
-    <t>0.727+/-0.012</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.712+/-0.005</t>
-  </si>
-  <si>
-    <t>0.678+/-0.017</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.859+/-0.015</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.906+/-0.002</t>
-  </si>
-  <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.89+/-0.003</t>
-  </si>
-  <si>
-    <t>0.837+/-0.009</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.927+/-0.001</t>
-  </si>
-  <si>
-    <t>0.872+/-0.009</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>10.917+/-0.157</t>
-  </si>
-  <si>
-    <t>0.788+/-0.003</t>
-  </si>
-  <si>
-    <t>0.774+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.798+/-0.004</t>
-  </si>
-  <si>
-    <t>0.783+/-0.011</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.771+/-0.003</t>
-  </si>
-  <si>
-    <t>0.758+/-0.008</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>2.131+/-0.031</t>
-  </si>
-  <si>
-    <t>0.897+/-0.002</t>
-  </si>
-  <si>
-    <t>0.879+/-0.0</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.931+/-0.002</t>
-  </si>
-  <si>
-    <t>0.913+/-0.009</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.857+/-0.002</t>
-  </si>
-  <si>
-    <t>0.838+/-0.01</t>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t>8.75+/-0.359</t>
-  </si>
-  <si>
-    <t>0.742+/-0.005</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.773+/-0.004</t>
-  </si>
-  <si>
-    <t>0.749+/-0.017</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.685+/-0.01</t>
-  </si>
-  <si>
-    <t>0.659+/-0.018</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.859+/-0.024</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.872+/-0.003</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.889+/-0.005</t>
-  </si>
-  <si>
-    <t>0.776+/-0.025</t>
-  </si>
-  <si>
-    <t>0.849+/-0.004</t>
-  </si>
-  <si>
-    <t>0.719+/-0.025</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>7.122+/-0.047</t>
-  </si>
-  <si>
-    <t>0.709+/-0.004</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.731+/-0.004</t>
-  </si>
-  <si>
-    <t>0.716+/-0.02</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.663+/-0.007</t>
-  </si>
-  <si>
-    <t>0.652+/-0.026</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>1.557+/-0.031</t>
-  </si>
-  <si>
-    <t>0.814+/-0.001</t>
-  </si>
-  <si>
-    <t>0.778+/-0.0</t>
-  </si>
-  <si>
-    <t>0.863+/-0.017</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.696+/-0.003</t>
-  </si>
-  <si>
-    <t>0.662+/-0.021</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>6.363+/-0.065</t>
-  </si>
-  <si>
-    <t>0.677+/-0.003</t>
-  </si>
-  <si>
-    <t>0.63+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.663+/-0.002</t>
-  </si>
-  <si>
-    <t>0.62+/-0.01</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.719+/-0.007</t>
-  </si>
-  <si>
-    <t>0.672+/-0.018</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.673+/-0.023</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.871+/-0.002</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.883+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.009</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.855+/-0.004</t>
-  </si>
-  <si>
-    <t>0.693+/-0.015</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>6.928+/-0.046</t>
-  </si>
-  <si>
-    <t>0.685+/-0.003</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.706+/-0.005</t>
-  </si>
-  <si>
-    <t>0.689+/-0.015</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.633+/-0.009</t>
-  </si>
-  <si>
-    <t>0.619+/-0.025</t>
-  </si>
-  <si>
-    <t>1.475+/-0.019</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.884+/-0.005</t>
-  </si>
-  <si>
-    <t>0.817+/-0.013</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.664+/-0.004</t>
-  </si>
-  <si>
-    <t>0.61+/-0.023</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>6.076+/-0.067</t>
-  </si>
-  <si>
-    <t>0.672+/-0.003</t>
-  </si>
-  <si>
-    <t>0.617+/-0.0</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.656+/-0.004</t>
-  </si>
-  <si>
-    <t>0.606+/-0.013</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.723+/-0.008</t>
-  </si>
-  <si>
-    <t>0.665+/-0.023</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.62+/-0.013</t>
+    <t>0.583+/-0.015</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>2.244+/-0.075</t>
+  </si>
+  <si>
+    <t>0.789+/-0.003</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.886+/-0.006</t>
+  </si>
+  <si>
+    <t>0.394+/-0.036</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.662+/-0.004</t>
+  </si>
+  <si>
+    <t>0.189+/-0.027</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.87+/-0.001</t>
+  </si>
+  <si>
+    <t>0.584+/-0.018</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>9.057+/-0.217</t>
+  </si>
+  <si>
+    <t>0.67+/-0.006</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654+/-0.007</t>
+  </si>
+  <si>
+    <t>0.361+/-0.012</t>
+  </si>
+  <si>
+    <t>0.723+/-0.014</t>
+  </si>
+  <si>
+    <t>0.553+/-0.03</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.747+/-0.005</t>
+  </si>
+  <si>
+    <t>0.586+/-0.011</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>1.18+/-0.047</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,19 +1083,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -971,19 +1103,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -991,19 +1123,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1011,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1031,19 +1163,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1051,19 +1183,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1071,19 +1203,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1091,19 +1223,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1111,19 +1243,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1131,19 +1263,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1181,19 +1373,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1201,19 +1393,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,19 +1413,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1241,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1261,19 +1453,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1281,19 +1473,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1301,19 +1493,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1321,19 +1513,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1341,19 +1533,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1361,19 +1553,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
         <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1411,19 +1663,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1431,19 +1683,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1451,19 +1703,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1471,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1491,19 +1743,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1511,19 +1763,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1531,19 +1783,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1551,19 +1803,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1571,19 +1823,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1591,19 +1843,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1641,19 +1953,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,19 +1973,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1681,19 +1993,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,19 +2013,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,19 +2033,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,19 +2053,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,19 +2073,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,19 +2093,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,19 +2113,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,19 +2133,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
